--- a/artfynd/A 21557-2020.xlsx
+++ b/artfynd/A 21557-2020.xlsx
@@ -11492,7 +11492,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>85824690</v>
+        <v>87760649</v>
       </c>
       <c r="B85" t="n">
         <v>89368</v>
@@ -11531,7 +11531,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Kungshamn-Morga, Upl</t>
+          <t>Kungshamn-Morga NR, Upl</t>
         </is>
       </c>
       <c r="Q85" t="n">
@@ -11541,7 +11541,7 @@
         <v>6629365.789523169</v>
       </c>
       <c r="S85" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
@@ -11575,7 +11575,7 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
@@ -11596,12 +11596,12 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Emil V. Nilsson</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Emil V. Nilsson, Björn Bråvander</t>
+          <t>Karl Soler Kinnerbäck</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
